--- a/proyecto/venta/terrenos.xlsx
+++ b/proyecto/venta/terrenos.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">descripcion </t>
   </si>
   <si>
-    <t xml:space="preserve">descripcion 2</t>
+    <t xml:space="preserve">descripcion2</t>
   </si>
   <si>
     <t xml:space="preserve">ACODI</t>
@@ -2864,7 +2864,7 @@
   <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
